--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cck-Cckar.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cck-Cckar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,7 +91,10 @@
     <t>Cckar</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.35058591217652</v>
+        <v>0.3699113333333333</v>
       </c>
       <c r="H2">
-        <v>1.35058591217652</v>
+        <v>1.109734</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1349496966916995</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1349496966916995</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.420529385318786</v>
+        <v>0.5512466666666667</v>
       </c>
       <c r="N2">
-        <v>0.420529385318786</v>
+        <v>1.65374</v>
       </c>
       <c r="O2">
-        <v>0.6612488054646015</v>
+        <v>0.4731086696060851</v>
       </c>
       <c r="P2">
-        <v>0.6612488054646015</v>
+        <v>0.4731086696060851</v>
       </c>
       <c r="Q2">
-        <v>0.5679610634678038</v>
+        <v>0.2039123894622222</v>
       </c>
       <c r="R2">
-        <v>0.5679610634678038</v>
+        <v>1.83521150516</v>
       </c>
       <c r="S2">
-        <v>0.6612488054646015</v>
+        <v>0.06384587146555468</v>
       </c>
       <c r="T2">
-        <v>0.6612488054646015</v>
+        <v>0.06384587146555468</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +587,681 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.3699113333333333</v>
+      </c>
+      <c r="H3">
+        <v>1.109734</v>
+      </c>
+      <c r="I3">
+        <v>0.1349496966916995</v>
+      </c>
+      <c r="J3">
+        <v>0.1349496966916995</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.131089</v>
+      </c>
+      <c r="N3">
+        <v>0.393267</v>
+      </c>
+      <c r="O3">
+        <v>0.1125074238816115</v>
+      </c>
+      <c r="P3">
+        <v>0.1125074238816115</v>
+      </c>
+      <c r="Q3">
+        <v>0.04849130677533332</v>
+      </c>
+      <c r="R3">
+        <v>0.436421760978</v>
+      </c>
+      <c r="S3">
+        <v>0.01518284272838795</v>
+      </c>
+      <c r="T3">
+        <v>0.01518284272838795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.3699113333333333</v>
+      </c>
+      <c r="H4">
+        <v>1.109734</v>
+      </c>
+      <c r="I4">
+        <v>0.1349496966916995</v>
+      </c>
+      <c r="J4">
+        <v>0.1349496966916995</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.1763026666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.528908</v>
+      </c>
+      <c r="O4">
+        <v>0.1513121531945864</v>
+      </c>
+      <c r="P4">
+        <v>0.1513121531945864</v>
+      </c>
+      <c r="Q4">
+        <v>0.0652163544968889</v>
+      </c>
+      <c r="R4">
+        <v>0.5869471904720001</v>
+      </c>
+      <c r="S4">
+        <v>0.02041952917937741</v>
+      </c>
+      <c r="T4">
+        <v>0.02041952917937741</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.3699113333333333</v>
+      </c>
+      <c r="H5">
+        <v>1.109734</v>
+      </c>
+      <c r="I5">
+        <v>0.1349496966916995</v>
+      </c>
+      <c r="J5">
+        <v>0.1349496966916995</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.3065203333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.9195610000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.263071753317717</v>
+      </c>
+      <c r="P5">
+        <v>0.263071753317717</v>
+      </c>
+      <c r="Q5">
+        <v>0.1133853451971111</v>
+      </c>
+      <c r="R5">
+        <v>1.020468106774</v>
+      </c>
+      <c r="S5">
+        <v>0.03550145331837951</v>
+      </c>
+      <c r="T5">
+        <v>0.03550145331837951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.6129226666666666</v>
+      </c>
+      <c r="H6">
+        <v>1.838768</v>
+      </c>
+      <c r="I6">
+        <v>0.2236042005439168</v>
+      </c>
+      <c r="J6">
+        <v>0.2236042005439168</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.5512466666666667</v>
+      </c>
+      <c r="N6">
+        <v>1.65374</v>
+      </c>
+      <c r="O6">
+        <v>0.4731086696060851</v>
+      </c>
+      <c r="P6">
+        <v>0.4731086696060851</v>
+      </c>
+      <c r="Q6">
+        <v>0.3378715769244444</v>
+      </c>
+      <c r="R6">
+        <v>3.04084419232</v>
+      </c>
+      <c r="S6">
+        <v>0.1057890858376647</v>
+      </c>
+      <c r="T6">
+        <v>0.1057890858376647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.6129226666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.838768</v>
+      </c>
+      <c r="I7">
+        <v>0.2236042005439168</v>
+      </c>
+      <c r="J7">
+        <v>0.2236042005439168</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.131089</v>
+      </c>
+      <c r="N7">
+        <v>0.393267</v>
+      </c>
+      <c r="O7">
+        <v>0.1125074238816115</v>
+      </c>
+      <c r="P7">
+        <v>0.1125074238816115</v>
+      </c>
+      <c r="Q7">
+        <v>0.08034741945066665</v>
+      </c>
+      <c r="R7">
+        <v>0.723126775056</v>
+      </c>
+      <c r="S7">
+        <v>0.02515713257230332</v>
+      </c>
+      <c r="T7">
+        <v>0.02515713257230332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.6129226666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.838768</v>
+      </c>
+      <c r="I8">
+        <v>0.2236042005439168</v>
+      </c>
+      <c r="J8">
+        <v>0.2236042005439168</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1763026666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.528908</v>
+      </c>
+      <c r="O8">
+        <v>0.1513121531945864</v>
+      </c>
+      <c r="P8">
+        <v>0.1513121531945864</v>
+      </c>
+      <c r="Q8">
+        <v>0.1080599005937778</v>
+      </c>
+      <c r="R8">
+        <v>0.972539105344</v>
+      </c>
+      <c r="S8">
+        <v>0.03383403304765416</v>
+      </c>
+      <c r="T8">
+        <v>0.03383403304765416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1.35058591217652</v>
-      </c>
-      <c r="H3">
-        <v>1.35058591217652</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.215433026777092</v>
-      </c>
-      <c r="N3">
-        <v>0.215433026777092</v>
-      </c>
-      <c r="O3">
-        <v>0.3387511945353984</v>
-      </c>
-      <c r="P3">
-        <v>0.3387511945353984</v>
-      </c>
-      <c r="Q3">
-        <v>0.2909608109826874</v>
-      </c>
-      <c r="R3">
-        <v>0.2909608109826874</v>
-      </c>
-      <c r="S3">
-        <v>0.3387511945353984</v>
-      </c>
-      <c r="T3">
-        <v>0.3387511945353984</v>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.6129226666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.838768</v>
+      </c>
+      <c r="I9">
+        <v>0.2236042005439168</v>
+      </c>
+      <c r="J9">
+        <v>0.2236042005439168</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.3065203333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.9195610000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.263071753317717</v>
+      </c>
+      <c r="P9">
+        <v>0.263071753317717</v>
+      </c>
+      <c r="Q9">
+        <v>0.1878732600942222</v>
+      </c>
+      <c r="R9">
+        <v>1.690859340848</v>
+      </c>
+      <c r="S9">
+        <v>0.0588239490862946</v>
+      </c>
+      <c r="T9">
+        <v>0.0588239490862946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.758271333333333</v>
+      </c>
+      <c r="H10">
+        <v>5.274814</v>
+      </c>
+      <c r="I10">
+        <v>0.6414461027643835</v>
+      </c>
+      <c r="J10">
+        <v>0.6414461027643836</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5512466666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.65374</v>
+      </c>
+      <c r="O10">
+        <v>0.4731086696060851</v>
+      </c>
+      <c r="P10">
+        <v>0.4731086696060851</v>
+      </c>
+      <c r="Q10">
+        <v>0.9692412115955555</v>
+      </c>
+      <c r="R10">
+        <v>8.72317090436</v>
+      </c>
+      <c r="S10">
+        <v>0.3034737123028656</v>
+      </c>
+      <c r="T10">
+        <v>0.3034737123028657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.758271333333333</v>
+      </c>
+      <c r="H11">
+        <v>5.274814</v>
+      </c>
+      <c r="I11">
+        <v>0.6414461027643835</v>
+      </c>
+      <c r="J11">
+        <v>0.6414461027643836</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.131089</v>
+      </c>
+      <c r="N11">
+        <v>0.393267</v>
+      </c>
+      <c r="O11">
+        <v>0.1125074238816115</v>
+      </c>
+      <c r="P11">
+        <v>0.1125074238816115</v>
+      </c>
+      <c r="Q11">
+        <v>0.2304900308153333</v>
+      </c>
+      <c r="R11">
+        <v>2.074410277338</v>
+      </c>
+      <c r="S11">
+        <v>0.07216744858092025</v>
+      </c>
+      <c r="T11">
+        <v>0.07216744858092027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.758271333333333</v>
+      </c>
+      <c r="H12">
+        <v>5.274814</v>
+      </c>
+      <c r="I12">
+        <v>0.6414461027643835</v>
+      </c>
+      <c r="J12">
+        <v>0.6414461027643836</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.1763026666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.528908</v>
+      </c>
+      <c r="O12">
+        <v>0.1513121531945864</v>
+      </c>
+      <c r="P12">
+        <v>0.1513121531945864</v>
+      </c>
+      <c r="Q12">
+        <v>0.3099879247902222</v>
+      </c>
+      <c r="R12">
+        <v>2.789891323112</v>
+      </c>
+      <c r="S12">
+        <v>0.09705859096755481</v>
+      </c>
+      <c r="T12">
+        <v>0.09705859096755481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.758271333333333</v>
+      </c>
+      <c r="H13">
+        <v>5.274814</v>
+      </c>
+      <c r="I13">
+        <v>0.6414461027643835</v>
+      </c>
+      <c r="J13">
+        <v>0.6414461027643836</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.3065203333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.9195610000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.263071753317717</v>
+      </c>
+      <c r="P13">
+        <v>0.263071753317717</v>
+      </c>
+      <c r="Q13">
+        <v>0.5389459151837778</v>
+      </c>
+      <c r="R13">
+        <v>4.850513236654001</v>
+      </c>
+      <c r="S13">
+        <v>0.1687463509130428</v>
+      </c>
+      <c r="T13">
+        <v>0.1687463509130429</v>
       </c>
     </row>
   </sheetData>
